--- a/demo/Results/Distance/Statistics.xlsx
+++ b/demo/Results/Distance/Statistics.xlsx
@@ -189,13 +189,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>7.8035839068125439</v>
+        <v>7.8035839069691777</v>
       </c>
       <c r="D2" s="0">
-        <v>7.7327901231930474</v>
+        <v>7.7216094220462619</v>
       </c>
       <c r="E2" s="0">
-        <v>7.8743776904320404</v>
+        <v>7.8855583918920935</v>
       </c>
       <c r="F2" s="0">
         <v>100</v>
@@ -233,13 +233,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>7.8132027883725383</v>
+        <v>7.8132027885292485</v>
       </c>
       <c r="D3" s="0">
-        <v>7.7424090047530418</v>
+        <v>7.731137814881925</v>
       </c>
       <c r="E3" s="0">
-        <v>7.8839965719920349</v>
+        <v>7.8952677621765721</v>
       </c>
       <c r="F3" s="0">
         <v>100</v>
@@ -277,13 +277,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>6.4121437040062892</v>
+        <v>6.4121437040773204</v>
       </c>
       <c r="D4" s="0">
-        <v>6.3543408217299149</v>
+        <v>6.3613782034022819</v>
       </c>
       <c r="E4" s="0">
-        <v>6.4699465862826635</v>
+        <v>6.4629092047523589</v>
       </c>
       <c r="F4" s="0">
         <v>150</v>
@@ -321,13 +321,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>6.4111952845462854</v>
+        <v>6.4111952846173574</v>
       </c>
       <c r="D5" s="0">
-        <v>6.353387104588724</v>
+        <v>6.360416188551814</v>
       </c>
       <c r="E5" s="0">
-        <v>6.4690034645038468</v>
+        <v>6.4619743806829009</v>
       </c>
       <c r="F5" s="0">
         <v>150</v>

--- a/demo/Results/Distance/Statistics.xlsx
+++ b/demo/Results/Distance/Statistics.xlsx
@@ -18,15 +18,18 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Chocolate</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>without</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
   </si>
   <si>
     <t>without</t>
-  </si>
-  <si>
-    <t>with</t>
   </si>
   <si>
     <t>emMean</t>
@@ -189,40 +189,40 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>7.8035839069691777</v>
+        <v>6.4033185758665621</v>
       </c>
       <c r="D2" s="0">
-        <v>7.7216094220462619</v>
+        <v>6.3527246666789541</v>
       </c>
       <c r="E2" s="0">
-        <v>7.8855583918920935</v>
+        <v>6.4543154213974221</v>
       </c>
       <c r="F2" s="0">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0">
-        <v>7.803583906900001</v>
+        <v>6.4008627016621622</v>
       </c>
       <c r="H2" s="0">
-        <v>0.41934142825016113</v>
+        <v>0.30421548608225651</v>
       </c>
       <c r="I2" s="0">
-        <v>0.041934142825016112</v>
+        <v>0.025006358917264996</v>
       </c>
       <c r="J2" s="0">
-        <v>7.7947946970000004</v>
+        <v>6.4042741164999999</v>
       </c>
       <c r="K2" s="0">
-        <v>7.4800183735000001</v>
+        <v>6.2033664315000001</v>
       </c>
       <c r="L2" s="0">
-        <v>8.0420734085000003</v>
+        <v>6.6057910829999997</v>
       </c>
       <c r="M2" s="0">
-        <v>7.7203774698563583</v>
+        <v>6.351444302235671</v>
       </c>
       <c r="N2" s="0">
-        <v>7.8867903439436438</v>
+        <v>6.4502811010886534</v>
       </c>
     </row>
     <row r="3">
@@ -233,40 +233,40 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>7.8132027885292485</v>
+        <v>6.4049622804385953</v>
       </c>
       <c r="D3" s="0">
-        <v>7.731137814881925</v>
+        <v>6.3543604244993226</v>
       </c>
       <c r="E3" s="0">
-        <v>7.8952677621765721</v>
+        <v>6.4559670955513253</v>
       </c>
       <c r="F3" s="0">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G3" s="0">
-        <v>7.8132027884599999</v>
+        <v>6.4121717987364857</v>
       </c>
       <c r="H3" s="0">
-        <v>0.41992296503290127</v>
+        <v>0.30439354425456205</v>
       </c>
       <c r="I3" s="0">
-        <v>0.04199229650329013</v>
+        <v>0.025020995208869232</v>
       </c>
       <c r="J3" s="0">
-        <v>7.7929037809999997</v>
+        <v>6.4195765219999998</v>
       </c>
       <c r="K3" s="0">
-        <v>7.4908276384999999</v>
+        <v>6.2231268034999996</v>
       </c>
       <c r="L3" s="0">
-        <v>8.0569310524999995</v>
+        <v>6.6217078469999997</v>
       </c>
       <c r="M3" s="0">
-        <v>7.7298809619021283</v>
+        <v>6.3627244745830076</v>
       </c>
       <c r="N3" s="0">
-        <v>7.8965246150178716</v>
+        <v>6.4616191228899638</v>
       </c>
     </row>
     <row r="4">
@@ -277,40 +277,40 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>6.4121437040773204</v>
+        <v>7.7903587737833098</v>
       </c>
       <c r="D4" s="0">
-        <v>6.3613782034022819</v>
+        <v>7.7151726641582243</v>
       </c>
       <c r="E4" s="0">
-        <v>6.4629092047523589</v>
+        <v>7.8662775891204557</v>
       </c>
       <c r="F4" s="0">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="G4" s="0">
-        <v>6.4121437040599991</v>
+        <v>7.800643225494948</v>
       </c>
       <c r="H4" s="0">
-        <v>0.31750415794280612</v>
+        <v>0.40273988165626112</v>
       </c>
       <c r="I4" s="0">
-        <v>0.025924105939063791</v>
+        <v>0.040476881077756231</v>
       </c>
       <c r="J4" s="0">
-        <v>6.4195765219999998</v>
+        <v>7.7882664259999999</v>
       </c>
       <c r="K4" s="0">
-        <v>6.2188592920000003</v>
+        <v>7.4907352527500004</v>
       </c>
       <c r="L4" s="0">
-        <v>6.6254884709999997</v>
+        <v>8.0477386592499993</v>
       </c>
       <c r="M4" s="0">
-        <v>6.3609173291045984</v>
+        <v>7.7203181723361309</v>
       </c>
       <c r="N4" s="0">
-        <v>6.4633700790153998</v>
+        <v>7.8809682786537651</v>
       </c>
     </row>
     <row r="5">
@@ -321,40 +321,40 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>6.4111952846173574</v>
+        <v>7.7805954198148362</v>
       </c>
       <c r="D5" s="0">
-        <v>6.360416188551814</v>
+        <v>7.7055035380197001</v>
       </c>
       <c r="E5" s="0">
-        <v>6.4619743806829009</v>
+        <v>7.8564190890504317</v>
       </c>
       <c r="F5" s="0">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="G5" s="0">
-        <v>6.4006279835799997</v>
+        <v>7.7908388779191915</v>
       </c>
       <c r="H5" s="0">
-        <v>0.31758259234368591</v>
+        <v>0.40153737786211341</v>
       </c>
       <c r="I5" s="0">
-        <v>0.025930510081078339</v>
+        <v>0.040356024899145117</v>
       </c>
       <c r="J5" s="0">
-        <v>6.4042741164999999</v>
+        <v>7.7940105600000003</v>
       </c>
       <c r="K5" s="0">
-        <v>6.1967543090000001</v>
+        <v>7.4779692312500003</v>
       </c>
       <c r="L5" s="0">
-        <v>6.6063427419999998</v>
+        <v>8.0341843214999997</v>
       </c>
       <c r="M5" s="0">
-        <v>6.3493889539555868</v>
+        <v>7.7107536599135038</v>
       </c>
       <c r="N5" s="0">
-        <v>6.4518670132044127</v>
+        <v>7.8709240959248792</v>
       </c>
     </row>
   </sheetData>

--- a/demo/Results/Distance/Statistics.xlsx
+++ b/demo/Results/Distance/Statistics.xlsx
@@ -189,13 +189,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>6.4033185758665621</v>
+        <v>6.4033185611742631</v>
       </c>
       <c r="D2" s="0">
-        <v>6.3527246666789541</v>
+        <v>6.3543345595769312</v>
       </c>
       <c r="E2" s="0">
-        <v>6.4543154213974221</v>
+        <v>6.452680168387098</v>
       </c>
       <c r="F2" s="0">
         <v>148</v>
@@ -233,13 +233,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>6.4049622804385953</v>
+        <v>6.4049622785610412</v>
       </c>
       <c r="D3" s="0">
-        <v>6.3543604244993226</v>
+        <v>6.3559911198599197</v>
       </c>
       <c r="E3" s="0">
-        <v>6.4559670955513253</v>
+        <v>6.4543107465345173</v>
       </c>
       <c r="F3" s="0">
         <v>148</v>
@@ -277,13 +277,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>7.7903587737833098</v>
+        <v>7.7903587572972448</v>
       </c>
       <c r="D4" s="0">
-        <v>7.7151726641582243</v>
+        <v>7.7116895944107986</v>
       </c>
       <c r="E4" s="0">
-        <v>7.8662775891204557</v>
+        <v>7.8698304469339559</v>
       </c>
       <c r="F4" s="0">
         <v>99</v>
@@ -321,13 +321,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>7.7805954198148362</v>
+        <v>7.7805954223115794</v>
       </c>
       <c r="D5" s="0">
-        <v>7.7055035380197001</v>
+        <v>7.7021175683140264</v>
       </c>
       <c r="E5" s="0">
-        <v>7.8564190890504317</v>
+        <v>7.8598728971294367</v>
       </c>
       <c r="F5" s="0">
         <v>99</v>

--- a/demo/Results/Distance/Statistics.xlsx
+++ b/demo/Results/Distance/Statistics.xlsx
@@ -27,16 +27,16 @@
     <t>Chocolate</t>
   </si>
   <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>without</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>without</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>emMean</t>
@@ -189,40 +189,40 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>6.4033185611742631</v>
+        <v>6.4049622804385953</v>
       </c>
       <c r="D2" s="0">
-        <v>6.3543345595769312</v>
+        <v>6.3543604244993226</v>
       </c>
       <c r="E2" s="0">
-        <v>6.452680168387098</v>
+        <v>6.4559670955513253</v>
       </c>
       <c r="F2" s="0">
         <v>148</v>
       </c>
       <c r="G2" s="0">
-        <v>6.4008627016621622</v>
+        <v>6.4121717987364857</v>
       </c>
       <c r="H2" s="0">
-        <v>0.30421548608225651</v>
+        <v>0.30439354425456205</v>
       </c>
       <c r="I2" s="0">
-        <v>0.025006358917264996</v>
+        <v>0.025020995208869232</v>
       </c>
       <c r="J2" s="0">
-        <v>6.4042741164999999</v>
+        <v>6.4195765219999998</v>
       </c>
       <c r="K2" s="0">
-        <v>6.2033664315000001</v>
+        <v>6.2231268034999996</v>
       </c>
       <c r="L2" s="0">
-        <v>6.6057910829999997</v>
+        <v>6.6217078469999997</v>
       </c>
       <c r="M2" s="0">
-        <v>6.351444302235671</v>
+        <v>6.3627244745830076</v>
       </c>
       <c r="N2" s="0">
-        <v>6.4502811010886534</v>
+        <v>6.4616191228899638</v>
       </c>
     </row>
     <row r="3">
@@ -233,40 +233,40 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>6.4049622785610412</v>
+        <v>6.4033185758665621</v>
       </c>
       <c r="D3" s="0">
-        <v>6.3559911198599197</v>
+        <v>6.3527246666789541</v>
       </c>
       <c r="E3" s="0">
-        <v>6.4543107465345173</v>
+        <v>6.4543154213974221</v>
       </c>
       <c r="F3" s="0">
         <v>148</v>
       </c>
       <c r="G3" s="0">
-        <v>6.4121717987364857</v>
+        <v>6.4008627016621622</v>
       </c>
       <c r="H3" s="0">
-        <v>0.30439354425456205</v>
+        <v>0.30421548608225651</v>
       </c>
       <c r="I3" s="0">
-        <v>0.025020995208869232</v>
+        <v>0.025006358917264996</v>
       </c>
       <c r="J3" s="0">
-        <v>6.4195765219999998</v>
+        <v>6.4042741164999999</v>
       </c>
       <c r="K3" s="0">
-        <v>6.2231268034999996</v>
+        <v>6.2033664315000001</v>
       </c>
       <c r="L3" s="0">
-        <v>6.6217078469999997</v>
+        <v>6.6057910829999997</v>
       </c>
       <c r="M3" s="0">
-        <v>6.3627244745830076</v>
+        <v>6.351444302235671</v>
       </c>
       <c r="N3" s="0">
-        <v>6.4616191228899638</v>
+        <v>6.4502811010886534</v>
       </c>
     </row>
     <row r="4">
@@ -277,40 +277,40 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>7.7903587572972448</v>
+        <v>7.7805954198148362</v>
       </c>
       <c r="D4" s="0">
-        <v>7.7116895944107986</v>
+        <v>7.7055035380197001</v>
       </c>
       <c r="E4" s="0">
-        <v>7.8698304469339559</v>
+        <v>7.8564190890504317</v>
       </c>
       <c r="F4" s="0">
         <v>99</v>
       </c>
       <c r="G4" s="0">
-        <v>7.800643225494948</v>
+        <v>7.7908388779191915</v>
       </c>
       <c r="H4" s="0">
-        <v>0.40273988165626112</v>
+        <v>0.40153737786211341</v>
       </c>
       <c r="I4" s="0">
-        <v>0.040476881077756231</v>
+        <v>0.040356024899145117</v>
       </c>
       <c r="J4" s="0">
-        <v>7.7882664259999999</v>
+        <v>7.7940105600000003</v>
       </c>
       <c r="K4" s="0">
-        <v>7.4907352527500004</v>
+        <v>7.4779692312500003</v>
       </c>
       <c r="L4" s="0">
-        <v>8.0477386592499993</v>
+        <v>8.0341843214999997</v>
       </c>
       <c r="M4" s="0">
-        <v>7.7203181723361309</v>
+        <v>7.7107536599135038</v>
       </c>
       <c r="N4" s="0">
-        <v>7.8809682786537651</v>
+        <v>7.8709240959248792</v>
       </c>
     </row>
     <row r="5">
@@ -321,40 +321,40 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>7.7805954223115794</v>
+        <v>7.7903587737833098</v>
       </c>
       <c r="D5" s="0">
-        <v>7.7021175683140264</v>
+        <v>7.7151726641582243</v>
       </c>
       <c r="E5" s="0">
-        <v>7.8598728971294367</v>
+        <v>7.8662775891204557</v>
       </c>
       <c r="F5" s="0">
         <v>99</v>
       </c>
       <c r="G5" s="0">
-        <v>7.7908388779191915</v>
+        <v>7.800643225494948</v>
       </c>
       <c r="H5" s="0">
-        <v>0.40153737786211341</v>
+        <v>0.40273988165626112</v>
       </c>
       <c r="I5" s="0">
-        <v>0.040356024899145117</v>
+        <v>0.040476881077756231</v>
       </c>
       <c r="J5" s="0">
-        <v>7.7940105600000003</v>
+        <v>7.7882664259999999</v>
       </c>
       <c r="K5" s="0">
-        <v>7.4779692312500003</v>
+        <v>7.4907352527500004</v>
       </c>
       <c r="L5" s="0">
-        <v>8.0341843214999997</v>
+        <v>8.0477386592499993</v>
       </c>
       <c r="M5" s="0">
-        <v>7.7107536599135038</v>
+        <v>7.7203181723361309</v>
       </c>
       <c r="N5" s="0">
-        <v>7.8709240959248792</v>
+        <v>7.8809682786537651</v>
       </c>
     </row>
   </sheetData>

--- a/demo/Results/Distance/Statistics.xlsx
+++ b/demo/Results/Distance/Statistics.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="22" uniqueCount="18">
   <si>
     <t>Gender</t>
   </si>
@@ -25,12 +25,6 @@
   </si>
   <si>
     <t>Chocolate</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>no</t>
@@ -78,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -117,8 +111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -145,40 +142,40 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -189,13 +186,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>6.4049622804385953</v>
+        <v>6.4049622800179904</v>
       </c>
       <c r="D2" s="0">
-        <v>6.3543604244993226</v>
+        <v>6.3559911200122592</v>
       </c>
       <c r="E2" s="0">
-        <v>6.4559670955513253</v>
+        <v>6.4543107493161713</v>
       </c>
       <c r="F2" s="0">
         <v>148</v>
@@ -233,13 +230,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>6.4033185758665621</v>
+        <v>6.4033185626283764</v>
       </c>
       <c r="D3" s="0">
-        <v>6.3527246666789541</v>
+        <v>6.3543345597853351</v>
       </c>
       <c r="E3" s="0">
-        <v>6.4543154213974221</v>
+        <v>6.4526801711061141</v>
       </c>
       <c r="F3" s="0">
         <v>148</v>
@@ -274,16 +271,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0">
-        <v>7.7805954198148362</v>
+        <v>7.7805954243655453</v>
       </c>
       <c r="D4" s="0">
-        <v>7.7055035380197001</v>
+        <v>7.7021175685111425</v>
       </c>
       <c r="E4" s="0">
-        <v>7.8564190890504317</v>
+        <v>7.8598729010780728</v>
       </c>
       <c r="F4" s="0">
         <v>99</v>
@@ -318,16 +315,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0">
-        <v>7.7903587737833098</v>
+        <v>7.7903587593513874</v>
       </c>
       <c r="D5" s="0">
-        <v>7.7151726641582243</v>
+        <v>7.711689594709263</v>
       </c>
       <c r="E5" s="0">
-        <v>7.8662775891204557</v>
+        <v>7.869830450779566</v>
       </c>
       <c r="F5" s="0">
         <v>99</v>
